--- a/Dependancies.xlsx
+++ b/Dependancies.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>fn_hai_depth_zero</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>rt_sample_param_type</t>
+  </si>
+  <si>
+    <t>parents</t>
   </si>
 </sst>
 </file>
@@ -337,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -369,6 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,7 +695,7 @@
   <dimension ref="B2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,49 +914,58 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="J18" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
@@ -961,21 +974,21 @@
       </c>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -984,21 +997,21 @@
       </c>
       <c r="D26" s="24"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1006,7 +1019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>26</v>
       </c>
@@ -1015,7 +1028,7 @@
       </c>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="20" t="s">
